--- a/results/evaluation/ausmacrodata_JAPHV_2016/ausmacrodata_JAPHV_2016_best.xlsx
+++ b/results/evaluation/ausmacrodata_JAPHV_2016/ausmacrodata_JAPHV_2016_best.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="158">
   <si>
     <t>10yrNSWT-bond</t>
   </si>
@@ -392,18 +392,12 @@
     <t>Hits_te_</t>
   </si>
   <si>
-    <t>Part-GFS_te</t>
-  </si>
-  <si>
-    <t>Part-GFS_granger_graph</t>
+    <t>dm_KernelPCA_fit_inverse_transform_True_kernel_rbf</t>
   </si>
   <si>
     <t>FCBF</t>
   </si>
   <si>
-    <t>dm_KernelPCA_fit_inverse_transform_True_kernel_rbf</t>
-  </si>
-  <si>
     <t>predict</t>
   </si>
   <si>
@@ -437,61 +431,64 @@
     <t>1:ee8b55e5b8</t>
   </si>
   <si>
-    <t>10:6727ab6d73</t>
+    <t>8:77865e8a7c</t>
+  </si>
+  <si>
+    <t>14:9ce2ffe276</t>
   </si>
   <si>
     <t>4:cb9b545aa5</t>
   </si>
   <si>
-    <t>14:9ce2ffe276</t>
+    <t>8:51a69dae4f</t>
+  </si>
+  <si>
+    <t>1:1cc36c97fc</t>
+  </si>
+  <si>
+    <t>15:e6e4a7f8ab</t>
+  </si>
+  <si>
+    <t>2:f4b74c19f8</t>
+  </si>
+  <si>
+    <t>3:ae2e7b5629</t>
+  </si>
+  <si>
+    <t>7:9407f5cc54</t>
+  </si>
+  <si>
+    <t>14:5b9c18a064</t>
+  </si>
+  <si>
+    <t>8:20ab204cf4</t>
+  </si>
+  <si>
+    <t>2:98b8877e89</t>
+  </si>
+  <si>
+    <t>12:b7650231b2</t>
+  </si>
+  <si>
+    <t>1:81ecd80c92</t>
+  </si>
+  <si>
+    <t>4:e4842e400d</t>
+  </si>
+  <si>
+    <t>3:a78467b6c0</t>
+  </si>
+  <si>
+    <t>6:5080920051</t>
   </si>
   <si>
     <t>9:af483c534b</t>
   </si>
   <si>
-    <t>8:51a69dae4f</t>
-  </si>
-  <si>
-    <t>6:5080920051</t>
-  </si>
-  <si>
-    <t>15:e6e4a7f8ab</t>
-  </si>
-  <si>
-    <t>12:b7650231b2</t>
-  </si>
-  <si>
-    <t>2:f4b74c19f8</t>
-  </si>
-  <si>
-    <t>1:1cc36c97fc</t>
-  </si>
-  <si>
-    <t>14:5b9c18a064</t>
-  </si>
-  <si>
-    <t>8:20ab204cf4</t>
-  </si>
-  <si>
-    <t>2:98b8877e89</t>
-  </si>
-  <si>
-    <t>3:ae2e7b5629</t>
-  </si>
-  <si>
-    <t>3:a78467b6c0</t>
-  </si>
-  <si>
-    <t>1:81ecd80c92</t>
-  </si>
-  <si>
-    <t>8:77865e8a7c</t>
-  </si>
-  <si>
-    <t>4:e4842e400d</t>
-  </si>
-  <si>
     <t>11:14e5d5f36b</t>
+  </si>
+  <si>
+    <t>15:ad6fb5e3f1</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1212,7 @@
         <v>0.422148539213178</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4123820187902468</v>
+        <v>0.4123820187902469</v>
       </c>
       <c r="F2" t="n">
         <v>3.25546440595132</v>
@@ -1236,16 +1233,16 @@
         <v>38.23721141132896</v>
       </c>
       <c r="L2" t="n">
-        <v>8.415593413794019</v>
+        <v>8.68682679721822</v>
       </c>
       <c r="M2" t="n">
-        <v>19.95393208562169</v>
+        <v>20.19643249575052</v>
       </c>
       <c r="N2" t="n">
         <v>5.453305055439202</v>
       </c>
       <c r="O2" t="n">
-        <v>9.67389715022378</v>
+        <v>9.683483746928102</v>
       </c>
       <c r="P2" t="n">
         <v>9.947207296445008</v>
@@ -1254,7 +1251,7 @@
         <v>5.829880725823136</v>
       </c>
       <c r="R2" t="n">
-        <v>10.11839997600354</v>
+        <v>10.21009829295071</v>
       </c>
       <c r="S2" t="n">
         <v>4.568572093653489</v>
@@ -1266,7 +1263,7 @@
         <v>3.908963356753361</v>
       </c>
       <c r="V2" t="n">
-        <v>7.254136256644115</v>
+        <v>7.447977878192125</v>
       </c>
       <c r="W2" t="n">
         <v>7.189519968481635</v>
@@ -1278,10 +1275,10 @@
         <v>5.919453332357332</v>
       </c>
       <c r="Z2" t="n">
-        <v>6.30226332087417</v>
+        <v>6.352210211569369</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.709103555675717</v>
+        <v>3.72207026313851</v>
       </c>
       <c r="AB2" t="n">
         <v>22.06197430618583</v>
@@ -1296,13 +1293,13 @@
         <v>12.0437508299488</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.209994829201706</v>
+        <v>6.232645010453804</v>
       </c>
       <c r="AG2" t="n">
         <v>2.560034951721805</v>
       </c>
       <c r="AH2" t="n">
-        <v>10.12349877083606</v>
+        <v>10.33010196937799</v>
       </c>
       <c r="AI2" t="n">
         <v>2.440458177941359</v>
@@ -1311,7 +1308,7 @@
         <v>4.12165650040889</v>
       </c>
       <c r="AK2" t="n">
-        <v>6.379698250080515</v>
+        <v>6.563737968899157</v>
       </c>
       <c r="AL2" t="n">
         <v>52.36936156984132</v>
@@ -1329,7 +1326,7 @@
         <v>4.239527825823868</v>
       </c>
       <c r="AQ2" t="n">
-        <v>7.556683845859137</v>
+        <v>7.561816184702878</v>
       </c>
       <c r="AR2" t="n">
         <v>3.18220044364281</v>
@@ -1341,7 +1338,7 @@
         <v>2.724568591994779</v>
       </c>
       <c r="AU2" t="n">
-        <v>10.21596085114279</v>
+        <v>10.32350855391754</v>
       </c>
       <c r="AV2" t="n">
         <v>22.71127316548251</v>
@@ -1350,16 +1347,16 @@
         <v>15.60168013600239</v>
       </c>
       <c r="AX2" t="n">
-        <v>21.51920125906017</v>
+        <v>21.92139497149654</v>
       </c>
       <c r="AY2" t="n">
         <v>26.56805245951215</v>
       </c>
       <c r="AZ2" t="n">
-        <v>18.64722447825356</v>
+        <v>19.93390030556396</v>
       </c>
       <c r="BA2" t="n">
-        <v>11.19505747981947</v>
+        <v>11.19957548611076</v>
       </c>
       <c r="BB2" t="n">
         <v>17.18645936946426</v>
@@ -1398,7 +1395,7 @@
         <v>5.054256412704248</v>
       </c>
       <c r="BN2" t="n">
-        <v>5.221603408749758</v>
+        <v>5.332727786736228</v>
       </c>
       <c r="BO2" t="n">
         <v>4.315712786589796</v>
@@ -1416,7 +1413,7 @@
         <v>5.709637616533239</v>
       </c>
       <c r="BT2" t="n">
-        <v>5.393968262571422</v>
+        <v>5.55758303716376</v>
       </c>
       <c r="BU2" t="n">
         <v>22.11351073117508</v>
@@ -1428,7 +1425,7 @@
         <v>32.24511909305657</v>
       </c>
       <c r="BX2" t="n">
-        <v>21.66138302824234</v>
+        <v>25.8759097483229</v>
       </c>
       <c r="BY2" t="n">
         <v>38.6941061110703</v>
@@ -1461,7 +1458,7 @@
         <v>11.17844114430141</v>
       </c>
       <c r="CI2" t="n">
-        <v>16.2014393103953</v>
+        <v>16.42752844683419</v>
       </c>
       <c r="CJ2" t="n">
         <v>17.68730926987379</v>
@@ -1473,13 +1470,13 @@
         <v>9.94566234355328</v>
       </c>
       <c r="CM2" t="n">
-        <v>25.07415147830455</v>
+        <v>25.67046914135529</v>
       </c>
       <c r="CN2" t="n">
-        <v>18.41930589656659</v>
+        <v>18.46818239285373</v>
       </c>
       <c r="CO2" t="n">
-        <v>23.04426400508324</v>
+        <v>23.05262522372333</v>
       </c>
       <c r="CP2" t="n">
         <v>22.35380296802667</v>
@@ -1488,13 +1485,13 @@
         <v>5.04637168007591</v>
       </c>
       <c r="CR2" t="n">
-        <v>19.11957583868619</v>
+        <v>19.17305245642295</v>
       </c>
       <c r="CS2" t="n">
         <v>10.39859126044041</v>
       </c>
       <c r="CT2" t="n">
-        <v>4.833675967153812</v>
+        <v>5.126712603076816</v>
       </c>
       <c r="CU2" t="n">
         <v>0.01520802348919744</v>
@@ -1518,10 +1515,10 @@
         <v>17.08147396029891</v>
       </c>
       <c r="DB2" t="n">
-        <v>16.67853691541678</v>
+        <v>16.77586667511335</v>
       </c>
       <c r="DC2" t="n">
-        <v>2.202883774822735</v>
+        <v>2.255440722112535</v>
       </c>
       <c r="DD2" t="n">
         <v>6.169653772581844</v>
@@ -1530,7 +1527,7 @@
         <v>16.3869517494419</v>
       </c>
       <c r="DF2" t="n">
-        <v>4.006926900991541</v>
+        <v>4.050976767144814</v>
       </c>
       <c r="DG2" t="n">
         <v>25.37207366758896</v>
@@ -1539,7 +1536,7 @@
         <v>2.963714756557952</v>
       </c>
       <c r="DI2" t="n">
-        <v>13.60502058031469</v>
+        <v>15.99621451763032</v>
       </c>
       <c r="DJ2" t="n">
         <v>20.2005094058366</v>
@@ -1548,10 +1545,10 @@
         <v>14.17510345175924</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.2075300737214268</v>
+        <v>0.2137407989655147</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.225783146672088</v>
+        <v>0.2351508207252327</v>
       </c>
       <c r="DN2" t="n">
         <v>31.20465707627366</v>
@@ -1592,52 +1589,52 @@
         <v>124</v>
       </c>
       <c r="L3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M3" t="s">
+        <v>120</v>
+      </c>
+      <c r="N3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O3" t="s">
+        <v>124</v>
+      </c>
+      <c r="P3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R3" t="s">
+        <v>122</v>
+      </c>
+      <c r="S3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T3" t="s">
+        <v>120</v>
+      </c>
+      <c r="U3" t="s">
+        <v>122</v>
+      </c>
+      <c r="V3" t="s">
+        <v>122</v>
+      </c>
+      <c r="W3" t="s">
+        <v>122</v>
+      </c>
+      <c r="X3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y3" t="s">
         <v>125</v>
       </c>
-      <c r="M3" t="s">
-        <v>126</v>
-      </c>
-      <c r="N3" t="s">
-        <v>122</v>
-      </c>
-      <c r="O3" t="s">
-        <v>126</v>
-      </c>
-      <c r="P3" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>120</v>
-      </c>
-      <c r="R3" t="s">
-        <v>127</v>
-      </c>
-      <c r="S3" t="s">
-        <v>122</v>
-      </c>
-      <c r="T3" t="s">
-        <v>120</v>
-      </c>
-      <c r="U3" t="s">
-        <v>122</v>
-      </c>
-      <c r="V3" t="s">
-        <v>126</v>
-      </c>
-      <c r="W3" t="s">
-        <v>122</v>
-      </c>
-      <c r="X3" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>128</v>
-      </c>
       <c r="Z3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AA3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB3" t="s">
         <v>122</v>
@@ -1652,25 +1649,25 @@
         <v>122</v>
       </c>
       <c r="AF3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK3" t="s">
         <v>126</v>
       </c>
-      <c r="AG3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH3" t="s">
+      <c r="AL3" t="s">
         <v>125</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>128</v>
       </c>
       <c r="AM3" t="s">
         <v>120</v>
@@ -1685,7 +1682,7 @@
         <v>119</v>
       </c>
       <c r="AQ3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AR3" t="s">
         <v>119</v>
@@ -1697,7 +1694,7 @@
         <v>122</v>
       </c>
       <c r="AU3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="AV3" t="s">
         <v>120</v>
@@ -1706,16 +1703,16 @@
         <v>122</v>
       </c>
       <c r="AX3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AY3" t="s">
         <v>122</v>
       </c>
       <c r="AZ3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="BA3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BB3" t="s">
         <v>120</v>
@@ -1742,7 +1739,7 @@
         <v>122</v>
       </c>
       <c r="BJ3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BK3" t="s">
         <v>119</v>
@@ -1754,7 +1751,7 @@
         <v>120</v>
       </c>
       <c r="BN3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BO3" t="s">
         <v>120</v>
@@ -1772,7 +1769,7 @@
         <v>122</v>
       </c>
       <c r="BT3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="BU3" t="s">
         <v>122</v>
@@ -1784,7 +1781,7 @@
         <v>122</v>
       </c>
       <c r="BX3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="BY3" t="s">
         <v>122</v>
@@ -1817,7 +1814,7 @@
         <v>120</v>
       </c>
       <c r="CI3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="CJ3" t="s">
         <v>120</v>
@@ -1829,13 +1826,13 @@
         <v>122</v>
       </c>
       <c r="CM3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="CN3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="CO3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="CP3" t="s">
         <v>124</v>
@@ -1844,19 +1841,19 @@
         <v>119</v>
       </c>
       <c r="CR3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="CS3" t="s">
         <v>120</v>
       </c>
       <c r="CT3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="CU3" t="s">
         <v>121</v>
       </c>
       <c r="CV3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CW3" t="s">
         <v>122</v>
@@ -1874,19 +1871,19 @@
         <v>120</v>
       </c>
       <c r="DB3" t="s">
+        <v>122</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>123</v>
+      </c>
+      <c r="DD3" t="s">
         <v>126</v>
       </c>
-      <c r="DC3" t="s">
-        <v>126</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>127</v>
-      </c>
       <c r="DE3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="DF3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="DG3" t="s">
         <v>122</v>
@@ -1895,7 +1892,7 @@
         <v>124</v>
       </c>
       <c r="DI3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="DJ3" t="s">
         <v>122</v>
@@ -1904,10 +1901,10 @@
         <v>119</v>
       </c>
       <c r="DL3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="DM3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="DN3" t="s">
         <v>122</v>
@@ -1915,355 +1912,355 @@
     </row>
     <row r="4" spans="1:118">
       <c r="A4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" t="s">
         <v>129</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" t="s">
         <v>130</v>
       </c>
-      <c r="C4" t="s">
+      <c r="J4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" t="s">
         <v>130</v>
       </c>
-      <c r="D4" t="s">
+      <c r="L4" t="s">
+        <v>128</v>
+      </c>
+      <c r="M4" t="s">
+        <v>128</v>
+      </c>
+      <c r="N4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O4" t="s">
+        <v>128</v>
+      </c>
+      <c r="P4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>128</v>
+      </c>
+      <c r="R4" t="s">
+        <v>122</v>
+      </c>
+      <c r="S4" t="s">
+        <v>122</v>
+      </c>
+      <c r="T4" t="s">
+        <v>128</v>
+      </c>
+      <c r="U4" t="s">
+        <v>122</v>
+      </c>
+      <c r="V4" t="s">
+        <v>122</v>
+      </c>
+      <c r="W4" t="s">
+        <v>122</v>
+      </c>
+      <c r="X4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>129</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BJ4" t="s">
         <v>130</v>
       </c>
-      <c r="E4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I4" t="s">
-        <v>132</v>
-      </c>
-      <c r="J4" t="s">
-        <v>122</v>
-      </c>
-      <c r="K4" t="s">
-        <v>132</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="BK4" t="s">
         <v>130</v>
       </c>
-      <c r="M4" t="s">
+      <c r="BL4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BM4" t="s">
         <v>130</v>
       </c>
-      <c r="N4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="BN4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BO4" t="s">
         <v>130</v>
       </c>
-      <c r="P4" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="BP4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ4" t="s">
         <v>130</v>
       </c>
-      <c r="R4" t="s">
-        <v>132</v>
-      </c>
-      <c r="S4" t="s">
-        <v>122</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="BR4" t="s">
         <v>130</v>
       </c>
-      <c r="U4" t="s">
-        <v>122</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="BS4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>128</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CG4" t="s">
         <v>130</v>
       </c>
-      <c r="W4" t="s">
-        <v>122</v>
-      </c>
-      <c r="X4" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y4" t="s">
+      <c r="CH4" t="s">
         <v>130</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="CI4" t="s">
+        <v>128</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>128</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CN4" t="s">
         <v>130</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="CO4" t="s">
+        <v>128</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>128</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>128</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>128</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>128</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>128</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>129</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>128</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>122</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>128</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>122</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>128</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>128</v>
+      </c>
+      <c r="DE4" t="s">
         <v>130</v>
       </c>
-      <c r="AB4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC4" t="s">
+      <c r="DF4" t="s">
+        <v>128</v>
+      </c>
+      <c r="DG4" t="s">
+        <v>122</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>128</v>
+      </c>
+      <c r="DI4" t="s">
         <v>130</v>
       </c>
-      <c r="AD4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>130</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>130</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>122</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>122</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>131</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>130</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>122</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>130</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>122</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>132</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>132</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>130</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>132</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>132</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>132</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>130</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>132</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>132</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>122</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>132</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>122</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>122</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>122</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>132</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>122</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>122</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>122</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>122</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>122</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>122</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>130</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>122</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>132</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>132</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>130</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>130</v>
-      </c>
-      <c r="CK4" t="s">
-        <v>130</v>
-      </c>
-      <c r="CL4" t="s">
-        <v>122</v>
-      </c>
-      <c r="CM4" t="s">
-        <v>132</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>132</v>
-      </c>
-      <c r="CO4" t="s">
-        <v>130</v>
-      </c>
-      <c r="CP4" t="s">
-        <v>130</v>
-      </c>
-      <c r="CQ4" t="s">
-        <v>130</v>
-      </c>
-      <c r="CR4" t="s">
-        <v>130</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>130</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>130</v>
-      </c>
-      <c r="CU4" t="s">
-        <v>131</v>
-      </c>
-      <c r="CV4" t="s">
-        <v>130</v>
-      </c>
-      <c r="CW4" t="s">
-        <v>122</v>
-      </c>
-      <c r="CX4" t="s">
-        <v>122</v>
-      </c>
-      <c r="CY4" t="s">
-        <v>122</v>
-      </c>
-      <c r="CZ4" t="s">
-        <v>122</v>
-      </c>
-      <c r="DA4" t="s">
-        <v>130</v>
-      </c>
-      <c r="DB4" t="s">
-        <v>130</v>
-      </c>
-      <c r="DC4" t="s">
-        <v>130</v>
-      </c>
-      <c r="DD4" t="s">
-        <v>130</v>
-      </c>
-      <c r="DE4" t="s">
-        <v>132</v>
-      </c>
-      <c r="DF4" t="s">
-        <v>130</v>
-      </c>
-      <c r="DG4" t="s">
-        <v>122</v>
-      </c>
-      <c r="DH4" t="s">
-        <v>130</v>
-      </c>
-      <c r="DI4" t="s">
-        <v>132</v>
-      </c>
       <c r="DJ4" t="s">
         <v>122</v>
       </c>
       <c r="DK4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="DL4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="DM4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="DN4" t="s">
         <v>122</v>
@@ -2271,358 +2268,358 @@
     </row>
     <row r="5" spans="1:118">
       <c r="A5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
         <v>133</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" t="s">
         <v>134</v>
       </c>
-      <c r="C5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" t="s">
         <v>136</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J5" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" t="s">
         <v>137</v>
       </c>
-      <c r="G5" t="s">
+      <c r="L5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5" t="s">
         <v>137</v>
       </c>
-      <c r="H5" t="s">
+      <c r="N5" t="s">
+        <v>135</v>
+      </c>
+      <c r="O5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P5" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>140</v>
+      </c>
+      <c r="R5" t="s">
+        <v>135</v>
+      </c>
+      <c r="S5" t="s">
+        <v>135</v>
+      </c>
+      <c r="T5" t="s">
+        <v>139</v>
+      </c>
+      <c r="U5" t="s">
+        <v>135</v>
+      </c>
+      <c r="V5" t="s">
+        <v>135</v>
+      </c>
+      <c r="W5" t="s">
+        <v>135</v>
+      </c>
+      <c r="X5" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS5" t="s">
         <v>137</v>
       </c>
-      <c r="I5" t="s">
+      <c r="AT5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>135</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>134</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>151</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>151</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>135</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>132</v>
+      </c>
+      <c r="BL5" t="s">
         <v>138</v>
       </c>
-      <c r="J5" t="s">
+      <c r="BM5" t="s">
         <v>137</v>
       </c>
-      <c r="K5" t="s">
-        <v>139</v>
-      </c>
-      <c r="L5" t="s">
-        <v>135</v>
-      </c>
-      <c r="M5" t="s">
-        <v>139</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="BN5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BO5" t="s">
         <v>137</v>
       </c>
-      <c r="O5" t="s">
+      <c r="BP5" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>135</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>135</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>135</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>135</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>135</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>135</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>135</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>135</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>135</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>135</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>135</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>152</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>135</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>144</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>137</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>153</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>144</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>153</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>135</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>135</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>137</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>132</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>154</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>149</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>144</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>155</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>156</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>134</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>153</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>135</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>135</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>135</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>135</v>
+      </c>
+      <c r="DA5" t="s">
         <v>140</v>
       </c>
-      <c r="P5" t="s">
+      <c r="DB5" t="s">
+        <v>135</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>151</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>133</v>
+      </c>
+      <c r="DE5" t="s">
         <v>137</v>
       </c>
-      <c r="Q5" t="s">
-        <v>141</v>
-      </c>
-      <c r="R5" t="s">
-        <v>139</v>
-      </c>
-      <c r="S5" t="s">
-        <v>137</v>
-      </c>
-      <c r="T5" t="s">
-        <v>142</v>
-      </c>
-      <c r="U5" t="s">
-        <v>137</v>
-      </c>
-      <c r="V5" t="s">
-        <v>143</v>
-      </c>
-      <c r="W5" t="s">
-        <v>137</v>
-      </c>
-      <c r="X5" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y5" t="s">
+      <c r="DF5" t="s">
+        <v>151</v>
+      </c>
+      <c r="DG5" t="s">
+        <v>135</v>
+      </c>
+      <c r="DH5" t="s">
+        <v>153</v>
+      </c>
+      <c r="DI5" t="s">
+        <v>157</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>135</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>145</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>135</v>
+      </c>
+      <c r="DM5" t="s">
         <v>144</v>
       </c>
-      <c r="Z5" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>151</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>152</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>153</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>154</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>154</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>154</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>148</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>139</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>137</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>137</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>136</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>155</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>137</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>155</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>137</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>139</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>134</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>156</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>139</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>139</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>139</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>139</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>139</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>137</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>139</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>137</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>137</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>137</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>139</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>137</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>137</v>
-      </c>
-      <c r="CA5" t="s">
-        <v>137</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>137</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>137</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>137</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>157</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>137</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>148</v>
-      </c>
-      <c r="CH5" t="s">
-        <v>139</v>
-      </c>
-      <c r="CI5" t="s">
-        <v>148</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>148</v>
-      </c>
-      <c r="CK5" t="s">
-        <v>154</v>
-      </c>
-      <c r="CL5" t="s">
-        <v>137</v>
-      </c>
-      <c r="CM5" t="s">
-        <v>139</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>139</v>
-      </c>
-      <c r="CO5" t="s">
-        <v>154</v>
-      </c>
-      <c r="CP5" t="s">
-        <v>145</v>
-      </c>
-      <c r="CQ5" t="s">
-        <v>152</v>
-      </c>
-      <c r="CR5" t="s">
-        <v>139</v>
-      </c>
-      <c r="CS5" t="s">
-        <v>143</v>
-      </c>
-      <c r="CT5" t="s">
-        <v>143</v>
-      </c>
-      <c r="CU5" t="s">
-        <v>136</v>
-      </c>
-      <c r="CV5" t="s">
-        <v>154</v>
-      </c>
-      <c r="CW5" t="s">
-        <v>137</v>
-      </c>
-      <c r="CX5" t="s">
-        <v>137</v>
-      </c>
-      <c r="CY5" t="s">
-        <v>137</v>
-      </c>
-      <c r="CZ5" t="s">
-        <v>137</v>
-      </c>
-      <c r="DA5" t="s">
-        <v>141</v>
-      </c>
-      <c r="DB5" t="s">
-        <v>158</v>
-      </c>
-      <c r="DC5" t="s">
-        <v>140</v>
-      </c>
-      <c r="DD5" t="s">
-        <v>135</v>
-      </c>
-      <c r="DE5" t="s">
-        <v>139</v>
-      </c>
-      <c r="DF5" t="s">
-        <v>147</v>
-      </c>
-      <c r="DG5" t="s">
-        <v>137</v>
-      </c>
-      <c r="DH5" t="s">
-        <v>154</v>
-      </c>
-      <c r="DI5" t="s">
-        <v>154</v>
-      </c>
-      <c r="DJ5" t="s">
-        <v>137</v>
-      </c>
-      <c r="DK5" t="s">
-        <v>153</v>
-      </c>
-      <c r="DL5" t="s">
-        <v>135</v>
-      </c>
-      <c r="DM5" t="s">
-        <v>154</v>
-      </c>
       <c r="DN5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
